--- a/LF/TAS/Burkina Faso/2023/july/bf_lf_tas1_202307_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2023/july/bf_lf_tas1_202307_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2023\july\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2662DEA-FF84-458B-8E3F-9E4C2B92F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF39554C-113E-46DC-9E28-8D83AA22662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>form_title</t>
   </si>
@@ -271,18 +271,9 @@
     <t>7 ans</t>
   </si>
   <si>
-    <t>Sélectionnez l'école</t>
-  </si>
-  <si>
     <t>p_site</t>
   </si>
   <si>
-    <t>p_code_site</t>
-  </si>
-  <si>
-    <t>Sélectionnez le code de l'école</t>
-  </si>
-  <si>
     <t>classe</t>
   </si>
   <si>
@@ -307,37 +298,71 @@
     <t>p_nom_CSPS</t>
   </si>
   <si>
-    <t>. &gt;=5 and . &lt;=10</t>
-  </si>
-  <si>
-    <t>L'âge doit être compris entre 5 et 10 ans</t>
-  </si>
-  <si>
-    <t>5 ans</t>
-  </si>
-  <si>
-    <t>8 ans</t>
-  </si>
-  <si>
-    <t>9 ans</t>
-  </si>
-  <si>
-    <t>10 ans</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202306_2_participant</t>
-  </si>
-  <si>
-    <t>(Juillet 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement</t>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>(Juillet 2023) Burkina Faso TAS FL - 2. Formulaire Enrôlement V4</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202306_2_participant_v4</t>
+  </si>
+  <si>
+    <t>p_num_menage</t>
+  </si>
+  <si>
+    <t>Numéro ménage</t>
+  </si>
+  <si>
+    <t>. &gt;=6 and . &lt;=7</t>
+  </si>
+  <si>
+    <t>L'âge doit être compris entre 6 et 7 ans</t>
+  </si>
+  <si>
+    <t>regex(.,'^[A-Z]{1}[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>Le format du code est composé d'une lettres majuscules suivies de 3 chiffres, Exemple: M001</t>
+  </si>
+  <si>
+    <t>Déjà traité par l'Ivermectinet et l'Albendazole</t>
+  </si>
+  <si>
+    <t>1. Scanner</t>
+  </si>
+  <si>
+    <t>2. Manuel</t>
+  </si>
+  <si>
+    <t>Sélectionnez la grappe</t>
+  </si>
+  <si>
+    <t>Sélectionnez le numéro de la grappe</t>
+  </si>
+  <si>
+    <t>p_numero_ordre_grappe</t>
+  </si>
+  <si>
+    <t>p_recu_avm_alb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -485,35 +510,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -821,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,7 +861,7 @@
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
@@ -946,10 +974,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -964,10 +992,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -982,10 +1010,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1007,13 +1035,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -1110,22 +1138,22 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>89</v>
+      <c r="E15" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
@@ -1133,18 +1161,23 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
         <v>11</v>
@@ -1152,14 +1185,14 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
+      <c r="A17" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1171,43 +1204,79 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1292,123 +1361,123 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="C9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="C10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,10 +1485,10 @@
         <v>74</v>
       </c>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="14"/>
     </row>
@@ -1428,118 +1497,104 @@
         <v>74</v>
       </c>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10</v>
+      <c r="A21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="14"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,19 +1619,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -1635,21 +1686,15 @@
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:D76">
-    <sortCondition ref="B62:B76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:D74">
+    <sortCondition ref="B60:B74"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
@@ -1662,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1688,10 +1733,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
